--- a/resources/docs/V0.9.0.1/diagram/kafka配置参数详解.xlsx
+++ b/resources/docs/V0.9.0.1/diagram/kafka配置参数详解.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Broker" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>每个</t>
     </r>
     <r>
@@ -249,6 +255,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>kafka</t>
     </r>
     <r>
@@ -323,6 +335,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>server</t>
     </r>
     <r>
@@ -343,6 +361,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>ZooKeeper</t>
     </r>
     <r>
@@ -795,6 +819,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>server</t>
     </r>
     <r>
@@ -884,6 +914,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>server</t>
     </r>
     <r>
@@ -901,6 +937,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>server</t>
     </r>
     <r>
@@ -942,6 +984,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>在网络线程停止读取新请求之前，可以排队等待</t>
     </r>
     <r>
@@ -968,6 +1016,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>broker</t>
     </r>
     <r>
@@ -1048,6 +1102,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>如果设置，则就作为</t>
     </r>
     <r>
@@ -1137,6 +1197,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>此端口将给与</t>
     </r>
     <r>
@@ -1238,6 +1304,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">SO_SNDBUFF </t>
     </r>
     <r>
@@ -1291,6 +1363,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>SO_RCVBUFF</t>
     </r>
     <r>
@@ -1347,6 +1425,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>server</t>
     </r>
     <r>
@@ -1409,6 +1493,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>如果创建</t>
     </r>
     <r>
@@ -1492,6 +1582,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>topic partition的日志存放在某个目录下诸多文件中，这些文件将</t>
     </r>
     <r>
@@ -1539,6 +1635,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>即使文件没有到达</t>
     </r>
     <r>
@@ -1586,6 +1688,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>log.retention.minutes</t>
     </r>
     <r>
@@ -1613,6 +1721,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>每个日志文件删除之前保存的时间。默认数据保存时间对所有</t>
     </r>
     <r>
@@ -1641,6 +1755,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>每个</t>
     </r>
     <r>
@@ -1821,6 +1941,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>进行</t>
     </r>
     <r>
@@ -1904,6 +2030,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>log cleaner</t>
     </r>
     <r>
@@ -1924,6 +2056,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>进行</t>
     </r>
     <r>
@@ -1965,6 +2103,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>log cleaning</t>
     </r>
     <r>
@@ -2015,6 +2159,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>保存时间；保存压缩日志的最长时间；也是客户端消费消息的最长时间，荣</t>
     </r>
     <r>
@@ -2062,6 +2212,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>每个</t>
     </r>
     <r>
@@ -2142,6 +2298,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>当执行一次</t>
     </r>
     <r>
@@ -2189,6 +2351,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>log</t>
     </r>
     <r>
@@ -2530,6 +2698,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>检查是否需要</t>
     </r>
     <r>
@@ -2556,6 +2730,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>仅仅通过</t>
     </r>
     <r>
@@ -2609,6 +2789,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>是否允许自动创建</t>
     </r>
     <r>
@@ -2716,6 +2902,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>partition</t>
     </r>
     <r>
@@ -2754,6 +2946,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>controller-to-broker-channles</t>
     </r>
     <r>
@@ -2789,6 +2987,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>默认备份份数，仅指自动创建的</t>
     </r>
     <r>
@@ -2806,6 +3010,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>如果一个</t>
     </r>
     <r>
@@ -2922,6 +3132,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>如果一个</t>
     </r>
     <r>
@@ -3005,6 +3221,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">leader </t>
     </r>
     <r>
@@ -3043,6 +3265,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>备份时向</t>
     </r>
     <r>
@@ -3081,6 +3309,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>备份时每次</t>
     </r>
     <r>
@@ -3107,6 +3341,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>leader</t>
     </r>
     <r>
@@ -3139,6 +3379,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>备份时每次</t>
     </r>
     <r>
@@ -3165,6 +3411,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>从</t>
     </r>
     <r>
@@ -3191,6 +3443,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>每个</t>
     </r>
     <r>
@@ -3217,6 +3475,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">fetch </t>
     </r>
     <r>
@@ -3234,6 +3498,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>producer</t>
     </r>
     <r>
@@ -3251,6 +3521,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>zookeeper</t>
     </r>
     <r>
@@ -3268,6 +3544,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>客户端等待和</t>
     </r>
     <r>
@@ -3294,6 +3576,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>zk follower</t>
     </r>
     <r>
@@ -3329,6 +3617,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>是否能够控制</t>
     </r>
     <r>
@@ -3415,6 +3709,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>在关机之间的</t>
     </r>
     <r>
@@ -3441,6 +3741,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>如果这是</t>
     </r>
     <r>
@@ -3512,6 +3818,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>每个</t>
     </r>
     <r>
@@ -3556,6 +3868,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>检查</t>
     </r>
     <r>
@@ -3582,6 +3900,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>允许客户端保存他们</t>
     </r>
     <r>
@@ -3608,6 +3932,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>每个</t>
     </r>
     <r>
@@ -3652,6 +3982,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>每个</t>
     </r>
     <r>
@@ -3702,6 +4038,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>从</t>
     </r>
     <r>
@@ -3752,6 +4094,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>指明了是否能够使不在</t>
     </r>
     <r>
@@ -3805,6 +4153,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>能够删除</t>
     </r>
     <r>
@@ -3822,6 +4176,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>偏移量提交主题的分区数。由于目前不支持在部署后更改此设置，我们建议在生产环境中使用更高的设置</t>
     </r>
     <r>
@@ -3866,6 +4226,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>存在时间超过这个时间限制的</t>
     </r>
     <r>
@@ -3892,6 +4258,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>offset</t>
     </r>
     <r>
@@ -3927,6 +4299,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>topic</t>
     </r>
     <r>
@@ -3962,6 +4340,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>offsets topic</t>
     </r>
     <r>
@@ -3997,6 +4381,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>这项设置与批量尺寸相关，当从</t>
     </r>
     <r>
@@ -4023,6 +4413,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>在</t>
     </r>
     <r>
@@ -4231,11 +4627,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4266,12 +4662,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4303,29 +4715,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4447,6 +4836,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4466,30 +4879,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4771,152 +5160,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4935,14 +5324,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -5294,14 +5677,14 @@
   <sheetPr/>
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="48.5" customWidth="1"/>
-    <col min="2" max="2" width="29.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="6" customWidth="1"/>
     <col min="3" max="3" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5329,7 +5712,7 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -5351,7 +5734,7 @@
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -5369,7 +5752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="29.25" spans="1:3">
+    <row r="7" ht="30" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -5380,7 +5763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="30.75" spans="1:3">
+    <row r="8" ht="30" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -5391,7 +5774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" ht="30.75" spans="1:3">
+    <row r="9" ht="29.25" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -5402,7 +5785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="30.75" spans="1:3">
+    <row r="10" ht="30" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -5417,7 +5800,7 @@
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -5428,7 +5811,7 @@
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -5439,29 +5822,29 @@
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" ht="30.75" spans="1:3">
+    <row r="14" ht="30" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" ht="45.75" spans="1:3">
+    <row r="15" ht="30" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -5472,7 +5855,7 @@
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -5494,7 +5877,7 @@
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -5505,7 +5888,7 @@
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -5516,16 +5899,16 @@
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" ht="87" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -5547,7 +5930,7 @@
       <c r="A23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -5576,11 +5959,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" ht="45.75" spans="1:3">
+    <row r="26" ht="45" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -5591,25 +5974,25 @@
       <c r="A27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" ht="45.75" spans="1:3">
+    <row r="28" ht="30" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" ht="45.75" spans="1:3">
+    <row r="29" ht="30" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>67</v>
       </c>
@@ -5646,7 +6029,7 @@
       <c r="A32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -5657,14 +6040,14 @@
       <c r="A33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" ht="30" spans="1:3">
+    <row r="34" ht="30.75" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>81</v>
       </c>
@@ -5679,18 +6062,18 @@
       <c r="A35" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" ht="45.75" spans="1:3">
+    <row r="36" ht="15.75" spans="1:3">
       <c r="A36" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -5701,14 +6084,14 @@
       <c r="A37" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" ht="30.75" spans="1:3">
+    <row r="38" ht="15.75" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>90</v>
       </c>
@@ -5730,7 +6113,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" ht="45.75" spans="1:3">
+    <row r="40" ht="30" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>95</v>
       </c>
@@ -5741,11 +6124,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" ht="45.75" spans="1:3">
+    <row r="41" ht="15.75" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -5785,40 +6168,40 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" ht="30.75" spans="1:3">
+    <row r="45" ht="15.75" spans="1:3">
       <c r="A45" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="46" ht="45.75" spans="1:3">
+    <row r="46" ht="30.75" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" ht="30.75" spans="1:3">
+    <row r="47" ht="15.75" spans="1:3">
       <c r="A47" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" ht="30.75" spans="1:3">
+    <row r="48" ht="30" spans="1:3">
       <c r="A48" s="3" t="s">
         <v>115</v>
       </c>
@@ -5829,7 +6212,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" ht="30.75" spans="1:3">
+    <row r="49" ht="15.75" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>115</v>
       </c>
@@ -5840,7 +6223,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" ht="30.75" spans="1:3">
+    <row r="50" ht="15.75" spans="1:3">
       <c r="A50" s="3" t="s">
         <v>118</v>
       </c>
@@ -5851,7 +6234,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" ht="60.75" spans="1:3">
+    <row r="51" ht="15.75" spans="1:3">
       <c r="A51" s="3" t="s">
         <v>120</v>
       </c>
@@ -5862,7 +6245,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" ht="45.75" spans="1:3">
+    <row r="52" ht="15.75" spans="1:3">
       <c r="A52" s="3" t="s">
         <v>122</v>
       </c>
@@ -5873,7 +6256,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" ht="60.75" spans="1:3">
+    <row r="53" ht="15.75" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>124</v>
       </c>
@@ -5884,7 +6267,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" ht="45.75" spans="1:3">
+    <row r="54" ht="15.75" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>126</v>
       </c>
@@ -5895,7 +6278,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" ht="45.75" spans="1:3">
+    <row r="55" ht="15.75" spans="1:3">
       <c r="A55" s="3" t="s">
         <v>128</v>
       </c>
@@ -5906,7 +6289,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" ht="30.75" spans="1:3">
+    <row r="56" ht="15.75" spans="1:3">
       <c r="A56" s="3" t="s">
         <v>130</v>
       </c>
@@ -5917,7 +6300,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" ht="45.75" spans="1:3">
+    <row r="57" ht="45" spans="1:3">
       <c r="A57" s="3" t="s">
         <v>132</v>
       </c>
@@ -5928,7 +6311,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" ht="45.75" spans="1:3">
+    <row r="58" ht="29.25" spans="1:3">
       <c r="A58" s="3" t="s">
         <v>134</v>
       </c>
@@ -5939,7 +6322,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" ht="45.75" spans="1:3">
+    <row r="59" ht="15.75" spans="1:3">
       <c r="A59" s="3" t="s">
         <v>136</v>
       </c>
@@ -5950,7 +6333,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" ht="45.75" spans="1:3">
+    <row r="60" ht="30.75" spans="1:3">
       <c r="A60" s="3" t="s">
         <v>138</v>
       </c>
@@ -5961,7 +6344,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" ht="60.75" spans="1:3">
+    <row r="61" ht="15.75" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>140</v>
       </c>
@@ -5972,7 +6355,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" ht="60.75" spans="1:3">
+    <row r="62" ht="15.75" spans="1:3">
       <c r="A62" s="3" t="s">
         <v>142</v>
       </c>
@@ -5983,7 +6366,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" ht="45.75" spans="1:3">
+    <row r="63" ht="15.75" spans="1:3">
       <c r="A63" s="3" t="s">
         <v>144</v>
       </c>
@@ -5994,18 +6377,18 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" ht="30.75" spans="1:3">
+    <row r="64" ht="15.75" spans="1:3">
       <c r="A64" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="65" ht="45.75" spans="1:3">
+    <row r="65" ht="15.75" spans="1:3">
       <c r="A65" s="3" t="s">
         <v>148</v>
       </c>
@@ -6014,7 +6397,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" ht="30.75" spans="1:3">
+    <row r="66" ht="15.75" spans="1:3">
       <c r="A66" s="3" t="s">
         <v>150</v>
       </c>
@@ -6036,7 +6419,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" ht="45.75" spans="1:3">
+    <row r="68" ht="15.75" spans="1:3">
       <c r="A68" s="3" t="s">
         <v>154</v>
       </c>
@@ -6047,7 +6430,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" ht="45.75" spans="1:3">
+    <row r="69" ht="30.75" spans="1:3">
       <c r="A69" s="3" t="s">
         <v>156</v>
       </c>
@@ -6058,7 +6441,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" ht="30.75" spans="1:3">
+    <row r="70" ht="15.75" spans="1:3">
       <c r="A70" s="3" t="s">
         <v>158</v>
       </c>
@@ -6080,7 +6463,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" ht="45.75" spans="1:3">
+    <row r="72" ht="30" spans="1:3">
       <c r="A72" s="3" t="s">
         <v>162</v>
       </c>
@@ -6091,7 +6474,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="73" ht="45.75" spans="1:3">
+    <row r="73" ht="15.75" spans="1:3">
       <c r="A73" s="3" t="s">
         <v>164</v>
       </c>
@@ -6102,7 +6485,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="74" ht="45.75" spans="1:3">
+    <row r="74" ht="30" spans="1:3">
       <c r="A74" s="3" t="s">
         <v>166</v>
       </c>
@@ -6113,7 +6496,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" ht="45.75" spans="1:3">
+    <row r="75" ht="15.75" spans="1:3">
       <c r="A75" s="3" t="s">
         <v>168</v>
       </c>
@@ -6124,7 +6507,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" ht="30.75" spans="1:3">
+    <row r="76" ht="30" spans="1:3">
       <c r="A76" s="3" t="s">
         <v>170</v>
       </c>
@@ -6169,8 +6552,8 @@
   <sheetPr/>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -6204,7 +6587,7 @@
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">

--- a/resources/docs/V0.9.0.1/diagram/kafka配置参数详解.xlsx
+++ b/resources/docs/V0.9.0.1/diagram/kafka配置参数详解.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Broker" sheetId="1" r:id="rId1"/>
-    <sheet name="Consumer" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Producer" sheetId="3" r:id="rId2"/>
+    <sheet name="Consumer" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="401">
   <si>
     <t>Property</t>
   </si>
@@ -4450,6 +4451,625 @@
     <t>当producer设置request.required.acks为-1时，min.insync.replicas指定replicas的最小数目（必须确认每一个repica的写数据都是成功的），如果这个数目没有达到，producer会产生异常。</t>
   </si>
   <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>有效值范围</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>bootstrap.servers</t>
+  </si>
+  <si>
+    <t>List&lt;String&gt;</t>
+  </si>
+  <si>
+    <t>配置格式：host1:port1,host2:port2,.... 
+由于这些主机是用于初始化连接，以获得整个集群（集群是会动态变化的），因此这个配置清单不需要包含整个集群的服务器。（当然，为了避免单节点风险，这个清单最好配置多台主机）。</t>
+  </si>
+  <si>
+    <t>生产者必填配置</t>
+  </si>
+  <si>
+    <t>key.serializer</t>
+  </si>
+  <si>
+    <t>必须实现org.apache.kafka.common.serialization.Serializer</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>key序列化类,也可以创建KafkaProducer实例直接指定序列化类，优先使用构造函数的实例。</t>
+  </si>
+  <si>
+    <t>value.serializer</t>
+  </si>
+  <si>
+    <t>value序列化类,也可以创建KafkaProducer实例直接指定序列化类，优先使用构造函数的实例。</t>
+  </si>
+  <si>
+    <t>acks</t>
+  </si>
+  <si>
+    <t>[all, -1, 0, 1]</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>all或-1：leader和follower数据同步完成才响应客户端。
+1：当leader数据接收到就响应客户端
+0：不等服务端响应，认为发送成功</t>
+  </si>
+  <si>
+    <t>数据安全为主推荐-1，
+性能为主推荐1</t>
+  </si>
+  <si>
+    <t>buffer.memory</t>
+  </si>
+  <si>
+    <t>32*1024*1024</t>
+  </si>
+  <si>
+    <t>大于等于0</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Producer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用来缓冲等待被发送到服务器的记录的总字节数。如果记录发送的速度比发送到服务器的速度快，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Producer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就会阻塞，如果阻塞的时间超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max.block.ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置的时长，则会抛出一个异常。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个配置与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Producer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的可用总内存有一定的对应关系，但并不是完全等价的关系，因为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Producer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的可用内存并不是全部都用来缓存。一些额外的内存可能会用于压缩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果启用了压缩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，以及维护正在运行的请求。</t>
+    </r>
+  </si>
+  <si>
+    <t>关于消息批量发送的配置</t>
+  </si>
+  <si>
+    <t>max.request.size</t>
+  </si>
+  <si>
+    <t>1*1024*1024</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>请求的最大字节数。这个设置将限制 Producer 在单个请求中发送的记录批量的数量，以避免发送巨大的请求。这实际上也等同于批次的最大记录数的限制。请注意，服务器对批次的大小有自己的限制，这可能与此不同。</t>
+  </si>
+  <si>
+    <t>batch.size</t>
+  </si>
+  <si>
+    <t>16*1024</t>
+  </si>
+  <si>
+    <t>当将多个记录被发送到同一个分区时， Producer 将尝试将记录组合到更少的请求中。这有助于提升客户端和服务器端的性能。这个配置控制一个批次的默认大小（以字节为单位）。
+当记录的大小超过了配置的字节数， Producer 将不再尝试往批次增加记录。
+发送到 broker 的请求会包含多个批次的数据，每个批次对应一个 partition 的可用数据
+小的 batch.size 将减少批处理，并且可能会降低吞吐量(如果 batch.size = 0的话将完全禁用批处理)。 很大的 batch.size 可能造成内存浪费，因为我们一般会在 batch.size 的基础上分配一部分缓存以应付额外的记录。</t>
+  </si>
+  <si>
+    <t>compression.type</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>[none,gzip,snappy,lz4]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Producer 生成数据时可使用的压缩类型。默认值是none(即不压缩)。可配置的压缩类型包括：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>none</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gzip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>snappy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, 或者 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lz4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> 。压缩是针对批处理的所有数据，所以批处理的效果也会影响压缩比(更多的批处理意味着更好的压缩)。</t>
+    </r>
+  </si>
+  <si>
+    <t>linger.ms</t>
+  </si>
+  <si>
+    <t>producer 会将两个请求发送时间间隔内到达的记录合并到一个单独的批处理请求中。通常只有当记录到达的速度超过了发送的速度时才会出现这种情况。然而，在某些场景下，即使处于可接受的负载下，客户端也希望能减少请求的数量。这个设置是通过添加少量的人为延迟来实现的&amp;mdash；即，与其立即发送记录， producer 将等待给定的延迟时间，以便将在等待过程中到达的其他记录能合并到本批次的处理中。这可以认为是与 TCP 中的 Nagle 算法类似。这个设置为批处理的延迟提供了上限:一旦我们接受到记录超过了分区的 batch.size ，Producer 会忽略这个参数，立刻发送数据。但是如果累积的字节数少于 batch.size ，那么我们将在指定的时间内“逗留”(linger)，以等待更多的记录出现。这个设置默认为0(即没有延迟)。例如：如果设置linger.ms=5 ，则发送的请求会减少并降低部分负载，但同时会增加5毫秒的延迟。</t>
+  </si>
+  <si>
+    <t>retry.backoff.ms</t>
+  </si>
+  <si>
+    <t>在尝试将一个失败的请求重试到给定的 topic 分区之前需要等待的时间。这避免在某些失败场景下在紧凑的循环中重复发送请求(单位毫秒)。</t>
+  </si>
+  <si>
+    <t>Metadata的配置</t>
+  </si>
+  <si>
+    <t>metadata.max.age.ms</t>
+  </si>
+  <si>
+    <t>5*60*1000</t>
+  </si>
+  <si>
+    <t>刷新元数据的时间间隔，单位毫秒。即使没有发现任何分区的 leadership 发生变更也会强制刷新以便能主动发现新的 Broker 或者新的分区。</t>
+  </si>
+  <si>
+    <t>max.block.ms</t>
+  </si>
+  <si>
+    <t>60*1000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该配置控制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t> KafkaProducer.send()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>KafkaProducer.partitionsFor()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>允许被阻塞的时长。这些方法可能因为缓冲区满了或者元数据不可用而被阻塞。用户提供的序列化程序或分区程序的阻塞将不会被计算到这个超时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单位毫秒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>request.timeout.ms</t>
+  </si>
+  <si>
+    <t>客户端等待请求响应的最大时长。如果超时未收到响应，则客户端将在必要时重新发送请求，如果重试的次数达到允许的最大重试次数，则请求失败。这个参数应该比 replica.lag.time.max.ms （Broker 的一个参数）更大，以降低由于不必要的重试而导致的消息重复的可能性。</t>
+  </si>
+  <si>
+    <t>NetworkClient的配置</t>
+  </si>
+  <si>
+    <t>9*60*1000</t>
+  </si>
+  <si>
+    <t>在此配置指定的毫秒数之后，关闭空闲连接。</t>
+  </si>
+  <si>
+    <t>max.in.flight.requests.per.connection</t>
+  </si>
+  <si>
+    <t>大于等于1</t>
+  </si>
+  <si>
+    <t>在发生阻塞之前，客户端的一个连接上允许出现未确认请求的最大数量。注意，如果这个设置大于1，并且有失败的发送，则消息可能会由于重试而导致重新排序(如果重试是启用的话)。</t>
+  </si>
+  <si>
+    <t>reconnect.backoff.ms</t>
+  </si>
+  <si>
+    <t>在尝试重新连接到给定的主机之前，需要等待的基本时间。这避免了在一个紧凑的循环中反复连接到同一个主机。这个 backoff 机制应用于所有客户端尝试连接到 Broker 的请求。</t>
+  </si>
+  <si>
+    <t>send.buffer.bytes</t>
+  </si>
+  <si>
+    <t>128*1024</t>
+  </si>
+  <si>
+    <t>定义发送数据时的 TCP 发送缓冲区（SO_SNDBUF）的大小。如果设置为-1，则使用系统默认值。</t>
+  </si>
+  <si>
+    <t>receive.buffer.bytes</t>
+  </si>
+  <si>
+    <t>32*1024</t>
+  </si>
+  <si>
+    <t>定义读取数据时 TCP 接收缓冲区（SO_RCVBUF）的大小，如果设置为-1，则使用系统默认值。</t>
+  </si>
+  <si>
+    <t>retries</t>
+  </si>
+  <si>
+    <t>若设置大于0的值，则客户端会将发送失败的记录重新发送，尽管这些记录有可能是暂时性的错误。请注意，这种 retry 与客户端收到错误信息之后重新发送记录并无区别。允许 retries 并且没有设置max.in.flight.requests.per.connection 为1时，记录的顺序可能会被改变。比如：当两个批次都被发送到同一个 partition ，第一个批次发生错误并发生 retries 而第二个批次已经成功，则第二个批次的记录就会先于第一个批次出现。</t>
+  </si>
+  <si>
+    <t>metrics.num.samples</t>
+  </si>
+  <si>
+    <t>计算 metrics 所需要维持的样本数量。</t>
+  </si>
+  <si>
+    <t>metrics配置</t>
+  </si>
+  <si>
+    <t>metrics.sample.window.ms</t>
+  </si>
+  <si>
+    <t>30*000</t>
+  </si>
+  <si>
+    <t>计算 metrics 样本的时间窗口(单位毫秒)。</t>
+  </si>
+  <si>
+    <t>metric.reporters</t>
+  </si>
+  <si>
+    <t>配置默认为空，源码中已加入JmxReporter</t>
+  </si>
+  <si>
+    <t>必须实现org.apache.kafka.common.metrics.MetricsReporter</t>
+  </si>
+  <si>
+    <t>List&lt;Class&gt;</t>
+  </si>
+  <si>
+    <t>用于指标监控报表的类清单。实现org.apache.kafka.common.metrics.MetricsReporter接口之后允许插入能够通知新的创建度量的类。JmxReporter 总是包含在注册的 JMX 统计信息中。</t>
+  </si>
+  <si>
+    <t>client.id</t>
+  </si>
+  <si>
+    <t>配置默认为空，
+不配置源码中为"producer-1"
+后面数字根据KafkaProducer实例递增</t>
+  </si>
+  <si>
+    <t>发出请求时传递给服务器的 ID 字符串。这样做的目的是为了在服务端的请求日志中能够通过逻辑应用名称来跟踪请求的来源，而不是只能通过IP和端口号跟进。</t>
+  </si>
+  <si>
+    <t>partitioner.class</t>
+  </si>
+  <si>
+    <t>DefaultPartitioner</t>
+  </si>
+  <si>
+    <t>必须实现org.apache.kafka.clients.producer.Partitioner</t>
+  </si>
+  <si>
+    <t>指定计算分区的类</t>
+  </si>
+  <si>
+    <t>block.on.buffer.full</t>
+  </si>
+  <si>
+    <t>[true,false]</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>已过时，现在只需要设置max.block.ms</t>
+  </si>
+  <si>
+    <t>已过时配置</t>
+  </si>
+  <si>
+    <t>metadata.fetch.timeout.ms</t>
+  </si>
+  <si>
+    <t>timeout.ms</t>
+  </si>
+  <si>
+    <t>已过时，现在只需要设置request.timeout.ms</t>
+  </si>
+  <si>
     <t>group.id</t>
   </si>
   <si>
@@ -4493,9 +5113,6 @@
   </si>
   <si>
     <t>auto.commit.interval.ms</t>
-  </si>
-  <si>
-    <t>60*1000</t>
   </si>
   <si>
     <t>consumer向zookeeper提交offset的频率，单位是秒</t>
@@ -4561,9 +5178,6 @@
     <t>是否将内部topics的消息暴露给consumer</t>
   </si>
   <si>
-    <t>client.id</t>
-  </si>
-  <si>
     <t>group id value</t>
   </si>
   <si>
@@ -4619,6 +5233,724 @@
   </si>
   <si>
     <t>在“range”和“roundrobin”策略之间选择一种作为分配partitions给consumer 数据流的策略； 循环的partition分配器分配所有可用的partitions以及所有可用consumer  线程。它会将partition循环的分配到consumer线程上。如果所有consumer实例的订阅都是确定的，则partitions的划分是确定的分布。循环分配策略只有在以下条件满足时才可以：（1）每个topic在每个consumer实力上都有同样数量的数据流。（2）订阅的topic的集合对于consumer  group中每个consumer实例来说都是确定的。</t>
+  </si>
+  <si>
+    <t>ssl.key.password</t>
+  </si>
+  <si>
+    <t>key store 文件中私钥的密码。这对于客户端来说是可选的。</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>ssl.keystore.location</t>
+  </si>
+  <si>
+    <t>key store 文件的位置。这对于客户端来说是可选的，可用于客户端的双向身份验证。</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ssl.keystore.password</t>
+  </si>
+  <si>
+    <t>key store 文件的密码。这对于客户端是可选的，只有配置了 ssl.keystore.location 才需要配置该选项。</t>
+  </si>
+  <si>
+    <t>ssl.truststore.location</t>
+  </si>
+  <si>
+    <t>trust store 文件的位置。</t>
+  </si>
+  <si>
+    <t>ssl.truststore.password</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">trust store </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件的密码。如果一个密码没有设置到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> trust store </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，这个密码仍然是可用的，但是完整性检查是禁用的。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> batch.size </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将减少批处理，并且可能会降低吞吐量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> batch.size = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的话将完全禁用批处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>很大的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> batch.size </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可能造成内存浪费，因为我们一般会在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> batch.size </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的基础上分配一部分缓存以应付额外的记录。</t>
+    </r>
+  </si>
+  <si>
+    <t>sasl.jaas.config</t>
+  </si>
+  <si>
+    <t>SASL 连接使用的 JAAS 登陆上下文参数，以 JAAS 配置文件的格式进行配置。 JAAS 配置文件格式可参考这里。值的格式: ' (=)*;'</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>sasl.kerberos.service.name</t>
+  </si>
+  <si>
+    <t>Kafka 运行时的 Kerberos 主体名称。可以在 Kafka 的 JAAS 配置文件或者 Kafka 的配置文件中配置。</t>
+  </si>
+  <si>
+    <t>sasl.mechanism</t>
+  </si>
+  <si>
+    <t>用于客户端连接的 SASL 机制。可以是任意安全可靠的机制。默认是 GSSAPI 机制。</t>
+  </si>
+  <si>
+    <t>GSSAPI</t>
+  </si>
+  <si>
+    <t>security.protocol</t>
+  </si>
+  <si>
+    <t>与 brokers 通讯的协议。可配置的值有: PLAINTEXT, SSL, SASL_PLAINTEXT, SASL_SSL.</t>
+  </si>
+  <si>
+    <t>PLAINTEXT</t>
+  </si>
+  <si>
+    <t>ssl.enabled.protocols</t>
+  </si>
+  <si>
+    <t>可用于 SSL 连接的协议列表。</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>TLSv1.2,TLSv1.1,TLSv1</t>
+  </si>
+  <si>
+    <t>ssl.keystore.type</t>
+  </si>
+  <si>
+    <t>key store 文件的文件格类型。这对于客户端来说是可选的。</t>
+  </si>
+  <si>
+    <t>JKS</t>
+  </si>
+  <si>
+    <t>ssl.protocol</t>
+  </si>
+  <si>
+    <t>用于生成SSLContext的SSL协议。默认设置是TLS，大多数情况下不会有问题。在最近的jvm版本中，允许的值是TLS、tlsv1.1和TLSv1.2。在旧的jvm中可能会支持SSL、SSLv2和SSLv3，但是由于存在已知的安全漏洞，因此不建议使用。</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>ssl.provider</t>
+  </si>
+  <si>
+    <t>用于 SSL 连接security provider 。默认值是当前 JVM 版本的默认 security provider 。</t>
+  </si>
+  <si>
+    <t>ssl.truststore.type</t>
+  </si>
+  <si>
+    <t>trust store 的文件类型。</t>
+  </si>
+  <si>
+    <t>enable.idempotence</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当设置为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Producer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将确保每个消息在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Stream </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中只写入一个副本。如果为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，由于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Broker </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障导致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Producer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行重试之类的情况可能会导致消息重复写入到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Stream </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中。请注意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>启用幂等性需要确保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max.in.flight.requests.per.connection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小于或等于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>retries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大于等于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并且</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必须设置为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">all </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。如果这些值不是由用户明确设置的，那么将自动选择合适的值。如果设置了不兼容的值，则将抛出一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ConfigException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的异常。</t>
+    </r>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>interceptor.classes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置 interceptor 类的列表。实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>org.apache.kafka.clients.producer.ProducerInterceptor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口之后可以拦截(并可能改变)那些 Producer 还没有发送到 kafka 集群的记录。默认情况下，没有 interceptor 。</t>
+    </r>
+  </si>
+  <si>
+    <t>metrics.recording.level</t>
+  </si>
+  <si>
+    <t>metrics 的最高纪录级别。</t>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t>[INFO, DEBUG]</t>
+  </si>
+  <si>
+    <t>reconnect.backoff.max.ms</t>
+  </si>
+  <si>
+    <t>当重新连接到一台多次连接失败的 Broker 时允许等待的最大毫秒数。如果配置该参数，则每台主机的 backoff 将呈指数级增长直到达到配置的最大值。当统计到 backoff 在增长，系统会增加20%的随机波动以避免大量的连接失败。</t>
+  </si>
+  <si>
+    <t>[0,...]</t>
+  </si>
+  <si>
+    <t>sasl.kerberos.kinit.cmd</t>
+  </si>
+  <si>
+    <t>Kerberos kinit 命令的路径。</t>
+  </si>
+  <si>
+    <t>/usr/bin/kinit</t>
+  </si>
+  <si>
+    <t>sasl.kerberos.min.time.before.relogin</t>
+  </si>
+  <si>
+    <t>重新尝试登陆之前,登录线程的休眠时间。</t>
+  </si>
+  <si>
+    <t>sasl.kerberos.ticket.renew.jitter</t>
+  </si>
+  <si>
+    <t>随机抖动增加到更新时间的百分比。</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>sasl.kerberos.ticket.renew.window.factor</t>
+  </si>
+  <si>
+    <t>登录线程将持续休眠直到上一次刷新到 ticket 的过期时间窗口，在此时间窗口它将尝试更新 ticket 。</t>
+  </si>
+  <si>
+    <t>ssl.cipher.suites</t>
+  </si>
+  <si>
+    <t>密码套件列表。密码套件是利用 TLS 或 SSL 网络协议来实现网络连接的安全设置，是一个涵盖认证，加密，MAC和密钥交换算法的组合。默认情况下，支持所有可用的密码套件。</t>
+  </si>
+  <si>
+    <t>ssl.endpoint.identification.algorithm</t>
+  </si>
+  <si>
+    <t>使用服务器证书验证服务器主机名的 endpoint 识别算法。</t>
+  </si>
+  <si>
+    <t>ssl.keymanager.algorithm</t>
+  </si>
+  <si>
+    <t>key manager factory 用于 SSL 连接的算法。默认值是Java虚拟机配置的 key manager factory 算法。</t>
+  </si>
+  <si>
+    <t>SunX509</t>
+  </si>
+  <si>
+    <t>ssl.secure.random.implementation</t>
+  </si>
+  <si>
+    <t>用于 SSL 加密操作的 SecureRandom PRNG 实现。</t>
+  </si>
+  <si>
+    <t>ssl.trustmanager.algorithm</t>
+  </si>
+  <si>
+    <t>trust manager factory 用于SSL连接的算法。默认值是Java虚拟机配置的 trust manager factory 算法。</t>
+  </si>
+  <si>
+    <t>PKIX</t>
+  </si>
+  <si>
+    <t>transaction.timeout.ms</t>
+  </si>
+  <si>
+    <t>主动中止进行中的事务之前，事务协调器等待 Producer 更新事务状态的最长时间（以毫秒为单位）。如果此值大于 Broker 中的 max.transaction.timeout.ms 设置的时长，则请求将失败并提示"InvalidTransactionTimeout"错误。</t>
+  </si>
+  <si>
+    <t>transactional.id</t>
+  </si>
+  <si>
+    <t>用于事务交付的 TransactionalId。 这使跨越多个生产者会话的可靠性语义成为可能，因为它可以保证客户在开始任何新的事务之前，使用相同的 TransactionalId 的事务都已经完成。 如果没有提供 TransactionalId ，则 Producer 被限制为幂等递送。 请注意，如果配置了 TransactionalId，则必须启用 enable.idempotence 。 缺省值为空，这意味着无法使用事务。</t>
+  </si>
+  <si>
+    <t>non-empty string</t>
   </si>
 </sst>
 </file>
@@ -4626,18 +5958,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -4659,31 +6003,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4743,6 +6077,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -4768,14 +6146,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4790,17 +6161,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4815,7 +6178,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4836,25 +6199,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4866,13 +6217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4890,13 +6235,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4909,24 +6260,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4950,7 +6283,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4962,13 +6301,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4980,19 +6319,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5010,18 +6385,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -5058,27 +6433,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -5097,6 +6492,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5108,6 +6512,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5132,21 +6566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -5163,10 +6582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5175,154 +6594,217 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -5677,866 +7159,866 @@
   <sheetPr/>
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="48.5" customWidth="1"/>
-    <col min="2" max="2" width="29.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="27" customWidth="1"/>
     <col min="3" max="3" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="75.75" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="38.25" customHeight="1" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="269.25" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" ht="60" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>1000000</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="30" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" ht="29.25" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" ht="30" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>500</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" ht="45.75" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" ht="30.75" spans="1:3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" ht="45.75" spans="1:3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="30" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" ht="30.75" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" ht="40" customHeight="1" spans="1:3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" ht="73.5" spans="1:3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" ht="45" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" ht="87" spans="1:3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" ht="104.25" spans="1:3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="6">
         <v>-1</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" ht="29.25" spans="1:3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" ht="57.75" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="1:3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="6">
         <v>1</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" ht="45" spans="1:3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" ht="44.25" spans="1:3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="6">
         <v>0.9</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" ht="39.75" customHeight="1" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="6">
         <v>15000</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" ht="100.5" spans="1:3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="6">
         <v>0.5</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" ht="59.25" spans="1:3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" ht="60" spans="1:3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" ht="30.75" spans="1:3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="6">
         <v>4096</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" ht="150" spans="1:3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="36" ht="15.75" spans="1:3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" ht="73.5" spans="1:3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="38" ht="15.75" spans="1:3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="6">
         <v>60000</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="39" ht="45.75" spans="1:3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" ht="30" spans="1:3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="6">
         <v>30000</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="41" ht="15.75" spans="1:3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="42" ht="15.75" spans="1:3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="6">
         <v>1</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="43" ht="45.75" spans="1:3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="6">
         <v>10000</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="44" ht="45" spans="1:3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="6">
         <v>4000</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" ht="15.75" spans="1:3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="46" ht="30.75" spans="1:3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="47" ht="15.75" spans="1:3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="48" ht="30" spans="1:3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="6">
         <v>500</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="49" ht="15.75" spans="1:3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="6">
         <v>1</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="50" ht="15.75" spans="1:3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="6">
         <v>1</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="51" ht="15.75" spans="1:3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="6">
         <v>5000</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="52" ht="15.75" spans="1:3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="6">
         <v>1000</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="53" ht="15.75" spans="1:3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="6">
         <v>1000</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="54" ht="15.75" spans="1:3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="6">
         <v>6000</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="55" ht="15.75" spans="1:3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="6">
         <v>6000</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56" ht="15.75" spans="1:3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="6">
         <v>2000</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="57" ht="45" spans="1:3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="58" ht="29.25" spans="1:3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="6">
         <v>3</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="59" ht="15.75" spans="1:3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="6">
         <v>5000</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="60" ht="30.75" spans="1:3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61" ht="15.75" spans="1:3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="6">
         <v>10</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="62" ht="15.75" spans="1:3">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="6">
         <v>300</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="63" ht="15.75" spans="1:3">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="6">
         <v>4096</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64" ht="15.75" spans="1:3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="65" ht="15.75" spans="1:3">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5" t="s">
+      <c r="B65" s="6"/>
+      <c r="C65" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="66" ht="15.75" spans="1:3">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="6">
         <v>600000</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="67" ht="15.75" spans="1:3">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="6">
         <v>0</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="68" ht="15.75" spans="1:3">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="6">
         <v>1</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="69" ht="30.75" spans="1:3">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="7" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="70" ht="15.75" spans="1:3">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="71" ht="44.25" spans="1:3">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="6">
         <v>50</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="72" ht="30" spans="1:3">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="6">
         <v>1440</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="73" ht="15.75" spans="1:3">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="6">
         <v>600000</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="74" ht="30" spans="1:3">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="6">
         <v>3</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="75" ht="15.75" spans="1:3">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="6">
         <v>104857600</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="76" ht="30" spans="1:3">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="6">
         <v>5242880</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="77" ht="30" spans="1:3">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="6">
         <v>-1</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="78" ht="57.75" spans="1:3">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="7" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6550,9 +8032,551 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="39.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" ht="83" customHeight="1" spans="1:6">
+      <c r="A2" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" ht="54.75" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" ht="54.75" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" ht="54.75" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" ht="127.5" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" ht="69" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" ht="176.25" spans="1:6">
+      <c r="A8" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" ht="72.75" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" ht="243.75" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" ht="41.25" spans="1:6">
+      <c r="A11" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="15">
+        <v>100</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" ht="42.75" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" ht="72" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" ht="82.5" spans="1:6">
+      <c r="A14" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:6">
+      <c r="A15" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" ht="54.75" spans="1:6">
+      <c r="A16" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="15">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" ht="54.75" spans="1:6">
+      <c r="A17" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="15">
+        <v>50</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" ht="41.25" spans="1:6">
+      <c r="A18" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" ht="27.75" spans="1:6">
+      <c r="A19" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" ht="135.75" spans="1:6">
+      <c r="A20" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:6">
+      <c r="A21" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="15">
+        <v>2</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:6">
+      <c r="A22" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" ht="68.25" spans="1:6">
+      <c r="A23" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" ht="68.25" spans="1:6">
+      <c r="A24" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25" ht="41.25" spans="1:6">
+      <c r="A25" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:6">
+      <c r="A26" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:6">
+      <c r="A27" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:6">
+      <c r="A28" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="F28" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F26:F28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -6564,320 +8588,320 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
-        <v>178</v>
+      <c r="A2" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="3" ht="253" customHeight="1" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>180</v>
+      <c r="C4" s="7" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="5" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>183</v>
+      <c r="A5" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="6" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>184</v>
+      <c r="C6" s="7" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="7" ht="93" customHeight="1" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>186</v>
+      <c r="C7" s="7" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="8" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>188</v>
+      <c r="C8" s="7" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="9" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>190</v>
+      <c r="C9" s="7" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="10" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>193</v>
+      <c r="A10" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="11" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>195</v>
+      <c r="C11" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="12" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="A12" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="6">
         <v>4</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>197</v>
+      <c r="C12" s="7" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="13" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="A13" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>199</v>
+      <c r="C13" s="7" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="14" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" s="6">
+        <v>100</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" ht="61.5" customHeight="1" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" ht="61.5" customHeight="1" spans="1:3">
+      <c r="A16" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" s="6">
         <v>200</v>
       </c>
-      <c r="B14" s="4">
-        <v>100</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="C16" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" ht="87" customHeight="1" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" ht="61.5" customHeight="1" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" ht="61.5" customHeight="1" spans="1:3">
+      <c r="A19" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" ht="61.5" customHeight="1" spans="1:3">
+      <c r="A20" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" ht="61.5" customHeight="1" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="6">
+        <v>6000</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" ht="61.5" customHeight="1" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="6">
+        <v>6000</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" ht="61.5" customHeight="1" spans="1:3">
+      <c r="A23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="6">
         <v>2000</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="4">
-        <v>200</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" ht="87" customHeight="1" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B18" s="4">
-        <v>-1</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="C23" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" ht="61.5" customHeight="1" spans="1:3">
+      <c r="A24" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" ht="61.5" customHeight="1" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" ht="61.5" customHeight="1" spans="1:3">
+      <c r="A26" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" ht="61.5" customHeight="1" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B27" s="6">
+        <v>5</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" ht="96" customHeight="1" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="4">
-        <v>6000</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="4">
-        <v>6000</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" s="4">
-        <v>2000</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B26" s="4">
-        <v>10000</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B27" s="4">
-        <v>5</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" ht="96" customHeight="1" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>229</v>
+      <c r="C28" s="7" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="29" ht="153" customHeight="1" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>232</v>
+      <c r="A29" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -6887,19 +8911,554 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.75" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" ht="41.25" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" ht="56.25" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" ht="154.5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" ht="71.25" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" ht="56.25" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" ht="42" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" ht="42.75" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" ht="42.75" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" ht="27.75" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" ht="112.5" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" ht="42.75" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" ht="212.25" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" ht="115.5" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="18" ht="111" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" ht="56.25" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="23" ht="83.25" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" ht="28.5" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="25" ht="56.25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" ht="28.5" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" ht="56.25" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="28" ht="111" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29" ht="183" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="SASL 连接使用的 JAAS 登陆上下文参数，以 JAAS 配置文件的格式进行配置。 JAAS 配置文件格式可参考这里。值的格式: ' (=)*;'" tooltip="http://docs.oracle.com/javase/8/docs/technotes/guides/security/jgss/tutorials/LoginConfigFile.html"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/resources/docs/V0.9.0.1/diagram/kafka配置参数详解.xlsx
+++ b/resources/docs/V0.9.0.1/diagram/kafka配置参数详解.xlsx
@@ -5272,6 +5272,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">trust store </t>
     </r>
     <r>
@@ -5958,9 +5964,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -6023,32 +6029,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6063,7 +6045,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6078,7 +6060,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6092,38 +6113,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6146,7 +6136,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6154,7 +6144,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6211,37 +6217,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6265,13 +6247,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6283,25 +6295,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6319,19 +6325,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6343,55 +6361,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6478,16 +6484,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6516,17 +6522,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6546,6 +6555,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -6553,24 +6577,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6585,7 +6591,7 @@
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6594,137 +6600,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6785,17 +6791,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7166,7 +7166,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="48.5" customWidth="1"/>
-    <col min="2" max="2" width="29.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="25" customWidth="1"/>
     <col min="3" max="3" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8034,8 +8034,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8084,7 +8084,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" ht="54.75" spans="1:6">
+    <row r="3" ht="41.25" spans="1:6">
       <c r="A3" s="11" t="s">
         <v>187</v>
       </c>
@@ -8100,7 +8100,7 @@
       </c>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" ht="54.75" spans="1:6">
+    <row r="4" ht="41.25" spans="1:6">
       <c r="A4" s="11" t="s">
         <v>191</v>
       </c>
@@ -8169,10 +8169,10 @@
       <c r="D7" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" ht="176.25" spans="1:6">
       <c r="A8" s="15" t="s">
@@ -8190,7 +8190,7 @@
       <c r="E8" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" ht="72.75" spans="1:6">
       <c r="A9" s="15" t="s">
@@ -8205,10 +8205,10 @@
       <c r="D9" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" ht="243.75" spans="1:6">
       <c r="A10" s="15" t="s">
@@ -8226,7 +8226,7 @@
       <c r="E10" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" ht="41.25" spans="1:6">
       <c r="A11" s="15" t="s">
@@ -8264,7 +8264,7 @@
       <c r="E12" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" ht="72" spans="1:6">
       <c r="A13" s="15" t="s">
@@ -8279,10 +8279,10 @@
       <c r="D13" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" ht="82.5" spans="1:6">
       <c r="A14" s="15" t="s">
@@ -8297,10 +8297,10 @@
       <c r="D14" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="20" t="s">
         <v>228</v>
       </c>
     </row>
@@ -8318,7 +8318,7 @@
       <c r="E15" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="F15" s="21"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" ht="54.75" spans="1:6">
       <c r="A16" s="15" t="s">
@@ -8336,7 +8336,7 @@
       <c r="E16" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" ht="54.75" spans="1:6">
       <c r="A17" s="15" t="s">
@@ -8354,7 +8354,7 @@
       <c r="E17" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" ht="41.25" spans="1:6">
       <c r="A18" s="15" t="s">
@@ -8372,7 +8372,7 @@
       <c r="E18" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" ht="27.75" spans="1:6">
       <c r="A19" s="15" t="s">
@@ -8390,7 +8390,7 @@
       <c r="E19" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="F19" s="21"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" ht="135.75" spans="1:6">
       <c r="A20" s="15" t="s">
@@ -8408,7 +8408,7 @@
       <c r="E20" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" ht="14.25" spans="1:6">
       <c r="A21" s="15" t="s">
@@ -8446,7 +8446,7 @@
       <c r="E22" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" ht="68.25" spans="1:6">
       <c r="A23" s="15" t="s">
@@ -8464,7 +8464,7 @@
       <c r="E23" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="F23" s="23"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" ht="68.25" spans="1:6">
       <c r="A24" s="15" t="s">
@@ -8480,7 +8480,7 @@
       <c r="E24" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" ht="41.25" spans="1:6">
       <c r="A25" s="15" t="s">
@@ -8498,22 +8498,22 @@
       <c r="E25" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" ht="14.25" spans="1:6">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="23" t="s">
         <v>265</v>
       </c>
       <c r="F26" s="19" t="s">
@@ -8521,40 +8521,40 @@
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:6">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" ht="14.25" spans="1:6">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/resources/docs/V0.9.0.1/diagram/kafka配置参数详解.xlsx
+++ b/resources/docs/V0.9.0.1/diagram/kafka配置参数详解.xlsx
@@ -5964,10 +5964,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -6023,44 +6023,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6071,6 +6049,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6089,31 +6075,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6136,7 +6115,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6150,17 +6159,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6217,13 +6217,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6235,19 +6349,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6265,67 +6385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6337,67 +6397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6483,6 +6483,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6502,7 +6526,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6524,9 +6548,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6534,23 +6560,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6569,17 +6580,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6588,10 +6588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6600,133 +6600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8034,8 +8034,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/resources/docs/V0.9.0.1/diagram/kafka配置参数详解.xlsx
+++ b/resources/docs/V0.9.0.1/diagram/kafka配置参数详解.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Broker" sheetId="1" r:id="rId1"/>
-    <sheet name="Producer" sheetId="3" r:id="rId2"/>
-    <sheet name="Consumer" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Topic" sheetId="4" r:id="rId2"/>
+    <sheet name="Producer" sheetId="3" r:id="rId3"/>
+    <sheet name="Consumer" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="315">
   <si>
     <t>Property</t>
   </si>
@@ -5070,893 +5070,145 @@
     <t>已过时，现在只需要设置request.timeout.ms</t>
   </si>
   <si>
+    <t>key.deserializer</t>
+  </si>
+  <si>
+    <t>必须实现org.apache.kafka.common.serialization.Deserializer</t>
+  </si>
+  <si>
+    <t>key反序列化类,也可以创建KafkaConsumer实例直接指定序列化类，优先使用构造函数的实例。</t>
+  </si>
+  <si>
+    <t>value.deserializer</t>
+  </si>
+  <si>
+    <t>value反序列化类,也可以创建KafkaConsumer实例直接指定序列化类，优先使用构造函数的实例。</t>
+  </si>
+  <si>
     <t>group.id</t>
   </si>
   <si>
-    <t>用来唯一标识consumer进程所在组的字符串，如果设置同样的group.id，表示这些processes都是属于同一个consumer group</t>
-  </si>
-  <si>
-    <t>consumer.id</t>
-  </si>
-  <si>
-    <t>不需要设置，一般自动产生</t>
-  </si>
-  <si>
-    <t>socket.timeout.ms</t>
-  </si>
-  <si>
-    <t>30*100</t>
-  </si>
-  <si>
-    <t>网络请求的超时限制。真实的超时限制是   max.fetch.wait+socket.timeout.ms</t>
-  </si>
-  <si>
-    <t>socket用于接收网络请求的缓存大小</t>
-  </si>
-  <si>
-    <t>fetch.message.max.bytes</t>
-  </si>
-  <si>
-    <t>每次fetch请求中，针对每次fetch消息的最大字节数。这些字节将会督导用于每个partition的内存中，因此，此设置将会控制consumer所使用的memory大小。这个fetch请求尺寸必须至少和server允许的最大消息尺寸相等，否则，producer可能发送的消息尺寸大于consumer所能消耗的尺寸。</t>
-  </si>
-  <si>
-    <t>num.consumer.fetchers</t>
-  </si>
-  <si>
-    <t>用于fetch数据的fetcher线程数</t>
-  </si>
-  <si>
-    <t>auto.commit.enable</t>
-  </si>
-  <si>
-    <t>如果为真，consumer所fetch的消息的offset将会自动的同步到zookeeper。这项提交的offset将在进程挂掉时，由新的consumer使用</t>
+    <t>标识此使用者所属的使用者组的唯一字符串。</t>
+  </si>
+  <si>
+    <t>enable.auto.commit</t>
+  </si>
+  <si>
+    <t>如果为真，使用者的偏移量将在后台定期提交。</t>
+  </si>
+  <si>
+    <t>自动提交存在丢数据风险，一般关闭</t>
   </si>
   <si>
     <t>auto.commit.interval.ms</t>
   </si>
   <si>
-    <t>consumer向zookeeper提交offset的频率，单位是秒</t>
-  </si>
-  <si>
-    <t>queued.max.message.chunks</t>
-  </si>
-  <si>
-    <t>用于缓存消息的最大数目，以供consumption。每个chunk必须和fetch.message.max.bytes相同</t>
-  </si>
-  <si>
-    <t>rebalance.max.retries</t>
-  </si>
-  <si>
-    <t>当新的consumer加入到consumer group时，consumers集合试图重新平衡分配到每个consumer的partitions数目。如果consumers集合改变了，当分配正在执行时，这个重新平衡会失败并重入</t>
+    <t>5*1000</t>
+  </si>
+  <si>
+    <t>大于0</t>
+  </si>
+  <si>
+    <t>如果enable.auto.commit设置为true，则消费者偏移量自动提交到Kafka的毫秒频率。</t>
+  </si>
+  <si>
+    <t>auto.offset.reset</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>[latest, earliest, none]</t>
+  </si>
+  <si>
+    <t>当Kafka中没有初始偏移量，或者当前偏移量在服务器上不存在时(例如，因为数据已经被删除)，该怎么办?
+earliest:自动重置偏移到最早的偏移
+latest:自动重置偏移量为最新偏移量
+none:如果未找到使用者组的先前偏移量，则向使用者抛出异常
+其他:向使用者抛出异常。</t>
+  </si>
+  <si>
+    <t>partition.assignment.strategy</t>
+  </si>
+  <si>
+    <t>org.apache.kafka.clients.consumer.RangeAssignor</t>
+  </si>
+  <si>
+    <t>必须实现org.apache.kafka.clients.consumer.internals.PartitionAssignor</t>
+  </si>
+  <si>
+    <t>分区分配策略的类名，当使用组管理时，客户机将使用该策略在使用者实例之间分配分区所有权</t>
+  </si>
+  <si>
+    <t>分区数不是消费者数的倍数，可根据实际情况调整</t>
+  </si>
+  <si>
+    <t>max.partition.fetch.bytes</t>
+  </si>
+  <si>
+    <t>服务器将返回的每个分区的最大数据量。消费者批量获取记录。如果fetch的第一个非空分区中的第一个记录批处理大于这个限制，仍然会返回该批处理，以确保使用者可以取得进展。</t>
+  </si>
+  <si>
+    <t>Fetcher</t>
   </si>
   <si>
     <t>fetch.min.bytes</t>
   </si>
   <si>
-    <t>每次fetch请求时，server应该返回的最小字节数。如果没有足够的数据返回，请求会等待，直到足够的数据才会返回。</t>
-  </si>
-  <si>
-    <t>fetch.wait.max.ms</t>
-  </si>
-  <si>
-    <t>如果没有足够的数据能够满足fetch.min.bytes，则此项配置是指在应答fetch请求之前，server会阻塞的最大时间。</t>
-  </si>
-  <si>
-    <t>rebalance.backoff.ms</t>
-  </si>
-  <si>
-    <t>在重试reblance之前backoff时间</t>
-  </si>
-  <si>
-    <t>refresh.leader.backoff.ms</t>
-  </si>
-  <si>
-    <t>在试图确定某个partition的leader是否失去他的leader地位之前，需要等待的backoff时间</t>
-  </si>
-  <si>
-    <t>auto.offset.reset</t>
-  </si>
-  <si>
-    <t>largest</t>
-  </si>
-  <si>
-    <t>zookeeper中没有初始化的offset时，如果offset是以下值的回应：
-smallest：offset不存在从头开始
-largest：offset不存在从最新数据开始
-anything else：向consumer抛出异常</t>
-  </si>
-  <si>
-    <t>consumer.timeout.ms</t>
-  </si>
-  <si>
-    <t>如果没有消息可用，即使等待特定的时间之后也没有，则抛出超时异常</t>
-  </si>
-  <si>
-    <t>exclude.internal.topics</t>
-  </si>
-  <si>
-    <t>是否将内部topics的消息暴露给consumer</t>
-  </si>
-  <si>
-    <t>group id value</t>
-  </si>
-  <si>
-    <t>是用户特定的字符串，用来在每次请求中帮助跟踪调用。它应该可以逻辑上确认产生这个请求的应用</t>
-  </si>
-  <si>
-    <t>zookeeper 会话的超时限制。如果consumer在这段时间内没有向zookeeper发送心跳信息，则它会被认为挂掉了，并且reblance将会产生</t>
-  </si>
-  <si>
-    <t>客户端在建立通zookeeper连接中的最大等待时间</t>
-  </si>
-  <si>
-    <t>ZK follower可以落后ZK leader的最大时间</t>
-  </si>
-  <si>
-    <t>offsets.storage</t>
-  </si>
-  <si>
-    <t>zookeeper</t>
-  </si>
-  <si>
-    <t>用于存放offsets的地点： zookeeper或者kafka</t>
-  </si>
-  <si>
-    <t>offset.channel.backoff.ms</t>
-  </si>
-  <si>
-    <t>重新连接offsets channel或者是重试失败的offset的fetch/commit请求的backoff时间</t>
-  </si>
-  <si>
-    <t>offsets.channel.socket.timeout.ms</t>
-  </si>
-  <si>
-    <t>当读取offset的fetch/commit请求回应的socket 超时限制。此超时限制是被consumerMetadata请求用来请求offset管理</t>
-  </si>
-  <si>
-    <t>offsets.commit.max.retries</t>
-  </si>
-  <si>
-    <t>重试offset commit的次数。这个重试只应用于offset  commits在shut-down之间。他</t>
-  </si>
-  <si>
-    <t>dual.commit.enabled</t>
-  </si>
-  <si>
-    <t>如果使用“kafka”作为offsets.storage，你可以二次提交offset到zookeeper(还有一次是提交到kafka）。在zookeeper-based的offset  storage到kafka-based的offset storage迁移时，这是必须的。对任意给定的consumer  group来说，比较安全的建议是当完成迁移之后就关闭这个选项</t>
-  </si>
-  <si>
-    <t>partition.assignment.strategy</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>在“range”和“roundrobin”策略之间选择一种作为分配partitions给consumer 数据流的策略； 循环的partition分配器分配所有可用的partitions以及所有可用consumer  线程。它会将partition循环的分配到consumer线程上。如果所有consumer实例的订阅都是确定的，则partitions的划分是确定的分布。循环分配策略只有在以下条件满足时才可以：（1）每个topic在每个consumer实力上都有同样数量的数据流。（2）订阅的topic的集合对于consumer  group中每个consumer实例来说都是确定的。</t>
-  </si>
-  <si>
-    <t>ssl.key.password</t>
-  </si>
-  <si>
-    <t>key store 文件中私钥的密码。这对于客户端来说是可选的。</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>ssl.keystore.location</t>
-  </si>
-  <si>
-    <t>key store 文件的位置。这对于客户端来说是可选的，可用于客户端的双向身份验证。</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>ssl.keystore.password</t>
-  </si>
-  <si>
-    <t>key store 文件的密码。这对于客户端是可选的，只有配置了 ssl.keystore.location 才需要配置该选项。</t>
-  </si>
-  <si>
-    <t>ssl.truststore.location</t>
-  </si>
-  <si>
-    <t>trust store 文件的位置。</t>
-  </si>
-  <si>
-    <t>ssl.truststore.password</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">trust store </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件的密码。如果一个密码没有设置到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> trust store </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，这个密码仍然是可用的，但是完整性检查是禁用的。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> batch.size </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将减少批处理，并且可能会降低吞吐量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如果</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> batch.size = 0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的话将完全禁用批处理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>很大的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> batch.size </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可能造成内存浪费，因为我们一般会在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> batch.size </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的基础上分配一部分缓存以应付额外的记录。</t>
-    </r>
-  </si>
-  <si>
-    <t>sasl.jaas.config</t>
-  </si>
-  <si>
-    <t>SASL 连接使用的 JAAS 登陆上下文参数，以 JAAS 配置文件的格式进行配置。 JAAS 配置文件格式可参考这里。值的格式: ' (=)*;'</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>sasl.kerberos.service.name</t>
-  </si>
-  <si>
-    <t>Kafka 运行时的 Kerberos 主体名称。可以在 Kafka 的 JAAS 配置文件或者 Kafka 的配置文件中配置。</t>
-  </si>
-  <si>
-    <t>sasl.mechanism</t>
-  </si>
-  <si>
-    <t>用于客户端连接的 SASL 机制。可以是任意安全可靠的机制。默认是 GSSAPI 机制。</t>
-  </si>
-  <si>
-    <t>GSSAPI</t>
-  </si>
-  <si>
-    <t>security.protocol</t>
-  </si>
-  <si>
-    <t>与 brokers 通讯的协议。可配置的值有: PLAINTEXT, SSL, SASL_PLAINTEXT, SASL_SSL.</t>
-  </si>
-  <si>
-    <t>PLAINTEXT</t>
-  </si>
-  <si>
-    <t>ssl.enabled.protocols</t>
-  </si>
-  <si>
-    <t>可用于 SSL 连接的协议列表。</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>TLSv1.2,TLSv1.1,TLSv1</t>
-  </si>
-  <si>
-    <t>ssl.keystore.type</t>
-  </si>
-  <si>
-    <t>key store 文件的文件格类型。这对于客户端来说是可选的。</t>
-  </si>
-  <si>
-    <t>JKS</t>
-  </si>
-  <si>
-    <t>ssl.protocol</t>
-  </si>
-  <si>
-    <t>用于生成SSLContext的SSL协议。默认设置是TLS，大多数情况下不会有问题。在最近的jvm版本中，允许的值是TLS、tlsv1.1和TLSv1.2。在旧的jvm中可能会支持SSL、SSLv2和SSLv3，但是由于存在已知的安全漏洞，因此不建议使用。</t>
-  </si>
-  <si>
-    <t>TLS</t>
-  </si>
-  <si>
-    <t>ssl.provider</t>
-  </si>
-  <si>
-    <t>用于 SSL 连接security provider 。默认值是当前 JVM 版本的默认 security provider 。</t>
-  </si>
-  <si>
-    <t>ssl.truststore.type</t>
-  </si>
-  <si>
-    <t>trust store 的文件类型。</t>
-  </si>
-  <si>
-    <t>enable.idempotence</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当设置为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Producer </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将确保每个消息在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Stream </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中只写入一个副本。如果为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，由于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Broker </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障导致</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Producer </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行重试之类的情况可能会导致消息重复写入到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Stream </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中。请注意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>启用幂等性需要确保</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>max.in.flight.requests.per.connection</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小于或等于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>retries</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大于等于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，并且</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必须设置为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">all </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。如果这些值不是由用户明确设置的，那么将自动选择合适的值。如果设置了不兼容的值，则将抛出一个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ConfigException</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的异常。</t>
-    </r>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>interceptor.classes</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配置 interceptor 类的列表。实现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>org.apache.kafka.clients.producer.ProducerInterceptor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口之后可以拦截(并可能改变)那些 Producer 还没有发送到 kafka 集群的记录。默认情况下，没有 interceptor 。</t>
-    </r>
-  </si>
-  <si>
-    <t>metrics.recording.level</t>
-  </si>
-  <si>
-    <t>metrics 的最高纪录级别。</t>
-  </si>
-  <si>
-    <t>INFO</t>
-  </si>
-  <si>
-    <t>[INFO, DEBUG]</t>
-  </si>
-  <si>
-    <t>reconnect.backoff.max.ms</t>
-  </si>
-  <si>
-    <t>当重新连接到一台多次连接失败的 Broker 时允许等待的最大毫秒数。如果配置该参数，则每台主机的 backoff 将呈指数级增长直到达到配置的最大值。当统计到 backoff 在增长，系统会增加20%的随机波动以避免大量的连接失败。</t>
-  </si>
-  <si>
-    <t>[0,...]</t>
-  </si>
-  <si>
-    <t>sasl.kerberos.kinit.cmd</t>
-  </si>
-  <si>
-    <t>Kerberos kinit 命令的路径。</t>
-  </si>
-  <si>
-    <t>/usr/bin/kinit</t>
-  </si>
-  <si>
-    <t>sasl.kerberos.min.time.before.relogin</t>
-  </si>
-  <si>
-    <t>重新尝试登陆之前,登录线程的休眠时间。</t>
-  </si>
-  <si>
-    <t>sasl.kerberos.ticket.renew.jitter</t>
-  </si>
-  <si>
-    <t>随机抖动增加到更新时间的百分比。</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>sasl.kerberos.ticket.renew.window.factor</t>
-  </si>
-  <si>
-    <t>登录线程将持续休眠直到上一次刷新到 ticket 的过期时间窗口，在此时间窗口它将尝试更新 ticket 。</t>
-  </si>
-  <si>
-    <t>ssl.cipher.suites</t>
-  </si>
-  <si>
-    <t>密码套件列表。密码套件是利用 TLS 或 SSL 网络协议来实现网络连接的安全设置，是一个涵盖认证，加密，MAC和密钥交换算法的组合。默认情况下，支持所有可用的密码套件。</t>
-  </si>
-  <si>
-    <t>ssl.endpoint.identification.algorithm</t>
-  </si>
-  <si>
-    <t>使用服务器证书验证服务器主机名的 endpoint 识别算法。</t>
-  </si>
-  <si>
-    <t>ssl.keymanager.algorithm</t>
-  </si>
-  <si>
-    <t>key manager factory 用于 SSL 连接的算法。默认值是Java虚拟机配置的 key manager factory 算法。</t>
-  </si>
-  <si>
-    <t>SunX509</t>
-  </si>
-  <si>
-    <t>ssl.secure.random.implementation</t>
-  </si>
-  <si>
-    <t>用于 SSL 加密操作的 SecureRandom PRNG 实现。</t>
-  </si>
-  <si>
-    <t>ssl.trustmanager.algorithm</t>
-  </si>
-  <si>
-    <t>trust manager factory 用于SSL连接的算法。默认值是Java虚拟机配置的 trust manager factory 算法。</t>
-  </si>
-  <si>
-    <t>PKIX</t>
-  </si>
-  <si>
-    <t>transaction.timeout.ms</t>
-  </si>
-  <si>
-    <t>主动中止进行中的事务之前，事务协调器等待 Producer 更新事务状态的最长时间（以毫秒为单位）。如果此值大于 Broker 中的 max.transaction.timeout.ms 设置的时长，则请求将失败并提示"InvalidTransactionTimeout"错误。</t>
-  </si>
-  <si>
-    <t>transactional.id</t>
-  </si>
-  <si>
-    <t>用于事务交付的 TransactionalId。 这使跨越多个生产者会话的可靠性语义成为可能，因为它可以保证客户在开始任何新的事务之前，使用相同的 TransactionalId 的事务都已经完成。 如果没有提供 TransactionalId ，则 Producer 被限制为幂等递送。 请注意，如果配置了 TransactionalId，则必须启用 enable.idempotence 。 缺省值为空，这意味着无法使用事务。</t>
-  </si>
-  <si>
-    <t>non-empty string</t>
+    <t>服务器应该为获取请求返回的最小数据量。如果没有足够的数据可用，请求将等待这么多数据累积后才响应请求。默认设置为1个字节意味着一旦有一个字节的数据可用，或者fetch请求等待数据到达的时间过长，fetch请求就会得到响应。将此值设置为大于1将导致服务器等待更大数量的数据累积，这可以稍微提高服务器的吞吐量，但代价是增加一些延迟。</t>
+  </si>
+  <si>
+    <t>fetch.max.wait.ms</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>如果没有足够的数据立即满足fetch.min.bytes所给出的要求，服务器在响应fetch请求之前所阻塞的最长时间。</t>
+  </si>
+  <si>
+    <t>check.crcs</t>
+  </si>
+  <si>
+    <t>自动检查所使用记录的CRC32。这确保不会发生消息的联机或磁盘损坏。这种检查增加了一些开销，因此在寻求极端性能的情况下可能会禁用它。</t>
+  </si>
+  <si>
+    <t>40*1000</t>
+  </si>
+  <si>
+    <t>大于等于0，必须大于session.timeout.ms和fetch.max.wait.ms</t>
+  </si>
+  <si>
+    <t>配置控制客户机等待请求响应的最大时间量。如果在超时之前没有收到响应，客户端将在必要时重新发送请求，或者在重试耗尽时请求失败。</t>
+  </si>
+  <si>
+    <t>session.timeout.ms</t>
+  </si>
+  <si>
+    <t>6*1000&lt;=session.timeout.ms&lt;=30*1000（来源于服务端）</t>
+  </si>
+  <si>
+    <t>使用Kafka的组管理工具时用于检测使用者故障的超时。消费者向代理发送周期性的心跳，以指示其活性。如果在此会话超时到期之前代理没有收到心跳，则代理将从组中删除此使用者并开始重新平衡。</t>
+  </si>
+  <si>
+    <t>ConsumerCoordinator</t>
+  </si>
+  <si>
+    <t>heartbeat.interval.ms</t>
+  </si>
+  <si>
+    <t>3*1000</t>
+  </si>
+  <si>
+    <t>小于session.timeout.ms</t>
+  </si>
+  <si>
+    <t>在使用Kafka的组管理工具时，心跳到消费者协调器的预期时间。心跳用于确保使用者会话保持活动状态，并在新消费者加入或离开组时促进重新平衡。该值必须设置为低于session.timeout.ms。，但一般应设置不高于该值的1/3。它可以调整甚至更低，以控制正常再平衡的预期时间。</t>
+  </si>
+  <si>
+    <t>配置默认为空，
+不配置源码中为"consumer-1"
+后面数字根据KafkaProducer实例递增</t>
   </si>
 </sst>
 </file>
@@ -5964,15 +5216,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6009,19 +5274,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -6036,14 +5288,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -6052,9 +5296,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6067,9 +5319,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6092,30 +5358,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6136,31 +5411,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6199,12 +5451,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6217,13 +5463,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6235,49 +5517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6295,13 +5541,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6319,67 +5637,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6391,13 +5649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6407,19 +5659,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC0C0C0"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -6483,18 +5722,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="medium">
+        <color rgb="FFC0C0C0"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -6502,7 +5739,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6524,9 +5761,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6548,35 +5826,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6588,10 +5840,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6600,214 +5852,241 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -7166,859 +6445,859 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="48.5" customWidth="1"/>
-    <col min="2" max="2" width="29.125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="29" customWidth="1"/>
     <col min="3" max="3" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="75.75" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="38.25" customHeight="1" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="269.25" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="32" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" ht="60" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="33">
         <v>1000000</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="30" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="33">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="33">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" ht="29.25" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="33">
         <v>4</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="34" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" ht="30" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="33">
         <v>500</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" ht="45.75" spans="1:3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" ht="30.75" spans="1:3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" ht="45.75" spans="1:3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="34" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="30" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" ht="30.75" spans="1:3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" ht="40" customHeight="1" spans="1:3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="33">
         <v>1</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" ht="73.5" spans="1:3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" ht="45" spans="1:3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="32"/>
     </row>
     <row r="21" ht="87" spans="1:3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="34" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" ht="104.25" spans="1:3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="33">
         <v>-1</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="34" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" ht="29.25" spans="1:3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" ht="57.75" spans="1:3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="1:3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="33">
         <v>1</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" ht="45" spans="1:3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="34" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" ht="44.25" spans="1:3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="32" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="34" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="33">
         <v>0.9</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="32" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" ht="39.75" customHeight="1" spans="1:3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="33">
         <v>15000</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="34" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" ht="100.5" spans="1:3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="33">
         <v>0.5</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="34" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" ht="59.25" spans="1:3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="34" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" ht="60" spans="1:3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" ht="30.75" spans="1:3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="33">
         <v>4096</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="34" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" ht="150" spans="1:3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="32" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="36" ht="15.75" spans="1:3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="34" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" ht="73.5" spans="1:3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="34" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="38" ht="15.75" spans="1:3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="33">
         <v>60000</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="34" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="39" ht="45.75" spans="1:3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="34" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" ht="30" spans="1:3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="33">
         <v>30000</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="32" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="41" ht="15.75" spans="1:3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="32" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="42" ht="15.75" spans="1:3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="33">
         <v>1</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="34" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="43" ht="45.75" spans="1:3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="33">
         <v>10000</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="34" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="44" ht="45" spans="1:3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="33">
         <v>4000</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="34" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" ht="15.75" spans="1:3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="32" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="46" ht="30.75" spans="1:3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="34" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="47" ht="15.75" spans="1:3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="48" ht="30" spans="1:3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="33">
         <v>500</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="49" ht="15.75" spans="1:3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="33">
         <v>1</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="34" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="50" ht="15.75" spans="1:3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="33">
         <v>1</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="34" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="51" ht="15.75" spans="1:3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="33">
         <v>5000</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="52" ht="15.75" spans="1:3">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="33">
         <v>1000</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="32" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="53" ht="15.75" spans="1:3">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="33">
         <v>1000</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="32" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="54" ht="15.75" spans="1:3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="33">
         <v>6000</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="55" ht="15.75" spans="1:3">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="33">
         <v>6000</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="34" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56" ht="15.75" spans="1:3">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="33">
         <v>2000</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="32" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="57" ht="45" spans="1:3">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="34" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="58" ht="29.25" spans="1:3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="33">
         <v>3</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="34" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="59" ht="15.75" spans="1:3">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="33">
         <v>5000</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="34" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="60" ht="30.75" spans="1:3">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="34" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61" ht="15.75" spans="1:3">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="33">
         <v>10</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="34" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="62" ht="15.75" spans="1:3">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="33">
         <v>300</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="34" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="63" ht="15.75" spans="1:3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="33">
         <v>4096</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="34" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64" ht="15.75" spans="1:3">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="34" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="65" ht="15.75" spans="1:3">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="7" t="s">
+      <c r="B65" s="33"/>
+      <c r="C65" s="34" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="66" ht="15.75" spans="1:3">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="33">
         <v>600000</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="34" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="67" ht="15.75" spans="1:3">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="33">
         <v>0</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="34" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="68" ht="15.75" spans="1:3">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="33">
         <v>1</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="69" ht="30.75" spans="1:3">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="34" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="70" ht="15.75" spans="1:3">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="34" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="71" ht="44.25" spans="1:3">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="33">
         <v>50</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="34" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="72" ht="30" spans="1:3">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="33">
         <v>1440</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="34" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="73" ht="15.75" spans="1:3">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="33">
         <v>600000</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="32" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="74" ht="30" spans="1:3">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="33">
         <v>3</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="32" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="75" ht="15.75" spans="1:3">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="33">
         <v>104857600</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="32" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="76" ht="30" spans="1:3">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="33">
         <v>5242880</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="34" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="77" ht="30" spans="1:3">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="33">
         <v>-1</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="34" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="78" ht="57.75" spans="1:3">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="34" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8032,89 +7311,105 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="39.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="39.625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="25.75" style="20" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="20" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="20" customWidth="1"/>
     <col min="6" max="6" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" ht="83" customHeight="1" spans="1:6">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="21" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="3" ht="41.25" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" ht="41.25" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" ht="54.75" spans="1:6">
       <c r="A5" s="15" t="s">
@@ -8129,10 +7424,10 @@
       <c r="D5" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="23" t="s">
         <v>197</v>
       </c>
     </row>
@@ -8152,7 +7447,7 @@
       <c r="E6" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="24" t="s">
         <v>203</v>
       </c>
     </row>
@@ -8172,7 +7467,7 @@
       <c r="E7" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" ht="176.25" spans="1:6">
       <c r="A8" s="15" t="s">
@@ -8187,10 +7482,10 @@
       <c r="D8" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" ht="72.75" spans="1:6">
       <c r="A9" s="15" t="s">
@@ -8205,10 +7500,10 @@
       <c r="D9" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" ht="243.75" spans="1:6">
       <c r="A10" s="15" t="s">
@@ -8223,10 +7518,10 @@
       <c r="D10" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" ht="41.25" spans="1:6">
       <c r="A11" s="15" t="s">
@@ -8241,10 +7536,10 @@
       <c r="D11" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="24" t="s">
         <v>219</v>
       </c>
     </row>
@@ -8264,7 +7559,7 @@
       <c r="E12" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" ht="72" spans="1:6">
       <c r="A13" s="15" t="s">
@@ -8279,10 +7574,10 @@
       <c r="D13" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" ht="82.5" spans="1:6">
       <c r="A14" s="15" t="s">
@@ -8297,10 +7592,10 @@
       <c r="D14" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="25" t="s">
         <v>228</v>
       </c>
     </row>
@@ -8315,10 +7610,10 @@
       <c r="D15" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" ht="54.75" spans="1:6">
       <c r="A16" s="15" t="s">
@@ -8333,10 +7628,10 @@
       <c r="D16" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" ht="54.75" spans="1:6">
       <c r="A17" s="15" t="s">
@@ -8351,10 +7646,10 @@
       <c r="D17" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" ht="41.25" spans="1:6">
       <c r="A18" s="15" t="s">
@@ -8369,10 +7664,10 @@
       <c r="D18" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" ht="27.75" spans="1:6">
       <c r="A19" s="15" t="s">
@@ -8387,10 +7682,10 @@
       <c r="D19" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" ht="135.75" spans="1:6">
       <c r="A20" s="15" t="s">
@@ -8405,10 +7700,10 @@
       <c r="D20" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" ht="14.25" spans="1:6">
       <c r="A21" s="15" t="s">
@@ -8423,10 +7718,10 @@
       <c r="D21" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="24" t="s">
         <v>246</v>
       </c>
     </row>
@@ -8443,10 +7738,10 @@
       <c r="D22" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" ht="68.25" spans="1:6">
       <c r="A23" s="15" t="s">
@@ -8461,10 +7756,10 @@
       <c r="D23" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" ht="68.25" spans="1:6">
       <c r="A24" s="15" t="s">
@@ -8477,10 +7772,10 @@
       <c r="D24" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="F24" s="13"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" ht="41.25" spans="1:6">
       <c r="A25" s="15" t="s">
@@ -8495,66 +7790,66 @@
       <c r="D25" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:6">
-      <c r="A26" s="23" t="s">
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="24" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:6">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="F27" s="20"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" ht="14.25" spans="1:6">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="F28" s="13"/>
+      <c r="F28" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8571,894 +7866,507 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="34.25" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="57.75" customWidth="1"/>
+    <col min="1" max="1" width="34.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" ht="19.5" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" ht="123" customHeight="1" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" ht="53" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" ht="61.5" customHeight="1" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" ht="61.5" customHeight="1" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" ht="61.5" customHeight="1" spans="1:6">
+      <c r="A6" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" ht="61.5" customHeight="1" spans="1:6">
+      <c r="A7" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" ht="117" customHeight="1" spans="1:6">
+      <c r="A8" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" ht="117" customHeight="1" spans="1:6">
+      <c r="A9" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" ht="72" customHeight="1" spans="1:6">
+      <c r="A10" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" ht="141" customHeight="1" spans="1:6">
+      <c r="A11" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" ht="72" customHeight="1" spans="1:6">
+      <c r="A12" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" ht="72" customHeight="1" spans="1:6">
+      <c r="A13" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" ht="72" customHeight="1" spans="1:6">
+      <c r="A14" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" ht="42" customHeight="1" spans="1:6">
+      <c r="A15" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" ht="82" customHeight="1" spans="1:6">
+      <c r="A16" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="15">
+        <v>50</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" ht="42" customHeight="1" spans="1:6">
+      <c r="A17" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" ht="42" customHeight="1" spans="1:6">
+      <c r="A18" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" ht="64" customHeight="1" spans="1:6">
+      <c r="A19" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" ht="64" customHeight="1" spans="1:6">
+      <c r="A20" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="15">
+        <v>100</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" ht="81.75" spans="1:6">
+      <c r="A21" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" ht="108.75" spans="1:6">
+      <c r="A22" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" ht="27.75" spans="1:6">
+      <c r="A23" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" ht="253" customHeight="1" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" ht="93" customHeight="1" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A9" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A10" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A11" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B11" s="6">
-        <v>2</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="12" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A12" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" s="6">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="13" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A13" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A14" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B14" s="6">
-        <v>100</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A15" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B15" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="16" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A16" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="C23" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" ht="27.75" spans="1:6">
+      <c r="A24" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="17" ht="87" customHeight="1" spans="1:3">
-      <c r="A17" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A18" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B18" s="6">
-        <v>-1</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="19" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A19" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A20" s="5" t="s">
+      <c r="D24" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" ht="81.75" spans="1:6">
+      <c r="A25" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" ht="68.25" spans="1:6">
+      <c r="A26" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A21" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A22" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A23" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A24" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="25" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A25" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B26" s="15" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="26" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A26" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B26" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="27" ht="61.5" customHeight="1" spans="1:3">
-      <c r="A27" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B27" s="6">
-        <v>5</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="28" ht="96" customHeight="1" spans="1:3">
-      <c r="A28" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="29" ht="153" customHeight="1" spans="1:3">
-      <c r="A29" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>323</v>
-      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="F26" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="27.75" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" ht="41.25" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" ht="56.25" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" ht="154.5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" ht="71.25" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="7" ht="56.25" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="8" ht="42" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" ht="42.75" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" ht="42.75" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="11" ht="27.75" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" ht="112.5" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" ht="42.75" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" ht="212.25" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" ht="115.5" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="18" ht="111" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="19" ht="28.5" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="20" ht="28.5" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="1">
-        <v>60000</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="21" ht="28.5" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="22" ht="56.25" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="23" ht="83.25" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="24" ht="28.5" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="25" ht="56.25" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="26" ht="28.5" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="27" ht="56.25" spans="1:6">
-      <c r="A27" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="28" ht="111" spans="1:6">
-      <c r="A28" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D28" s="1">
-        <v>60000</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="29" ht="183" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="SASL 连接使用的 JAAS 登陆上下文参数，以 JAAS 配置文件的格式进行配置。 JAAS 配置文件格式可参考这里。值的格式: ' (=)*;'" tooltip="http://docs.oracle.com/javase/8/docs/technotes/guides/security/jgss/tutorials/LoginConfigFile.html"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>